--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Parsiss\Bronchoscopy_project\Github\bronchoscopy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parsiss\Bronchoscopy_project\BronchoVision\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -50,46 +50,31 @@
     <t>@Home</t>
   </si>
   <si>
-    <t>آبان تا بهمن 98</t>
-  </si>
-  <si>
-    <t>* Python Tracker Connection</t>
-  </si>
-  <si>
-    <t>* Get Tool/Ref Coordinates from Tracker</t>
+    <t>* Multithread Tracking</t>
+  </si>
+  <si>
+    <t>* Record Tool/Ref points and save</t>
+  </si>
+  <si>
+    <t>* Two 3D views (Virtual/Normal)</t>
+  </si>
+  <si>
+    <t>بهار 99</t>
+  </si>
+  <si>
+    <t>* Multithreading</t>
+  </si>
+  <si>
+    <t>* Code Refactoring</t>
+  </si>
+  <si>
+    <t>* Documents (Read/Write)</t>
   </si>
   <si>
     <t>* GUI</t>
   </si>
   <si>
-    <t>* Tracker DataCapture</t>
-  </si>
-  <si>
-    <t>* Improved 3D Views</t>
-  </si>
-  <si>
-    <t>* 2D/3D Views</t>
-  </si>
-  <si>
-    <t>* Registration</t>
-  </si>
-  <si>
-    <t>* CenterLine Extraction</t>
-  </si>
-  <si>
-    <t>* Video Capture</t>
-  </si>
-  <si>
-    <t>* Meetings @Parsiss</t>
-  </si>
-  <si>
-    <t>* Live Tracking (Pre-registered)</t>
-  </si>
-  <si>
-    <t>* Visualize Tool in Views (2D/3D)</t>
-  </si>
-  <si>
-    <t>* 3D Virtual View</t>
+    <t>* 3D Views</t>
   </si>
 </sst>
 </file>
@@ -566,28 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,9 +581,9 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -610,113 +595,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="C11" s="12">
+        <f>SUM(C6:C10)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="2">
         <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12">
-        <f>SUM(C6:C14)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -50,31 +50,46 @@
     <t>@Home</t>
   </si>
   <si>
-    <t>* Multithread Tracking</t>
-  </si>
-  <si>
-    <t>* Record Tool/Ref points and save</t>
-  </si>
-  <si>
-    <t>* Two 3D views (Virtual/Normal)</t>
-  </si>
-  <si>
-    <t>بهار 99</t>
-  </si>
-  <si>
-    <t>* Multithreading</t>
-  </si>
-  <si>
-    <t>* Code Refactoring</t>
-  </si>
-  <si>
     <t>* Documents (Read/Write)</t>
   </si>
   <si>
     <t>* GUI</t>
   </si>
   <si>
-    <t>* 3D Views</t>
+    <t>تیر 99</t>
+  </si>
+  <si>
+    <t>• Render on GPU</t>
+  </si>
+  <si>
+    <t>* Segmentation (Lung/Airway)</t>
+  </si>
+  <si>
+    <t>* CenterLine Extraction</t>
+  </si>
+  <si>
+    <t>* Registration</t>
+  </si>
+  <si>
+    <t>• Registration (CPD)                         (not integrated)</t>
+  </si>
+  <si>
+    <t>* GPU Support</t>
+  </si>
+  <si>
+    <t>* Support for VTK files</t>
+  </si>
+  <si>
+    <t>* Integration</t>
+  </si>
+  <si>
+    <t>* Meetings</t>
+  </si>
+  <si>
+    <t>• Centerline extraction                    (not integrated)</t>
+  </si>
+  <si>
+    <t>• Segmentation (Lung/Airway)       (not integrated)</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +578,7 @@
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -583,7 +598,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -597,43 +612,46 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -645,28 +663,61 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="12">
-        <f>SUM(C6:C10)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="C15" s="12">
+        <f>SUM(C6:C14)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D16" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
-        <v>17</v>
+      <c r="D17" s="2">
+        <f>C15</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -50,53 +50,35 @@
     <t>@Home</t>
   </si>
   <si>
-    <t>* Documents (Read/Write)</t>
-  </si>
-  <si>
     <t>* GUI</t>
   </si>
   <si>
-    <t>تیر 99</t>
-  </si>
-  <si>
-    <t>• Render on GPU</t>
-  </si>
-  <si>
-    <t>* Segmentation (Lung/Airway)</t>
-  </si>
-  <si>
-    <t>* CenterLine Extraction</t>
-  </si>
-  <si>
     <t>* Registration</t>
   </si>
   <si>
-    <t>• Registration (CPD)                         (not integrated)</t>
-  </si>
-  <si>
-    <t>* GPU Support</t>
-  </si>
-  <si>
-    <t>* Support for VTK files</t>
-  </si>
-  <si>
-    <t>* Integration</t>
-  </si>
-  <si>
-    <t>* Meetings</t>
-  </si>
-  <si>
-    <t>• Centerline extraction                    (not integrated)</t>
-  </si>
-  <si>
-    <t>• Segmentation (Lung/Airway)       (not integrated)</t>
+    <t>مرداد 99</t>
+  </si>
+  <si>
+    <t>* Patients Database</t>
+  </si>
+  <si>
+    <t>• Patients Database</t>
+  </si>
+  <si>
+    <t>• Online Tracking (Registered)</t>
+  </si>
+  <si>
+    <t>* Online Tracking</t>
+  </si>
+  <si>
+    <t>* Meetings &amp; other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -196,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,11 +233,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -286,6 +285,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +598,13 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
@@ -612,35 +621,32 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,76 +654,43 @@
         <v>14</v>
       </c>
       <c r="C9" s="9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12">
+        <f>SUM(C6:C10)</f>
+        <v>40</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
+      <c r="C12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12">
-        <f>SUM(C6:C14)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
-        <f>C15</f>
-        <v>34</v>
+      <c r="D13" s="2">
+        <f>C11-D12</f>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -56,22 +56,37 @@
     <t>* Registration</t>
   </si>
   <si>
-    <t>مرداد 99</t>
-  </si>
-  <si>
     <t>* Patients Database</t>
   </si>
   <si>
-    <t>• Patients Database</t>
-  </si>
-  <si>
-    <t>• Online Tracking (Registered)</t>
-  </si>
-  <si>
-    <t>* Online Tracking</t>
-  </si>
-  <si>
     <t>* Meetings &amp; other</t>
+  </si>
+  <si>
+    <t>شهریور، مهر و آبان 99</t>
+  </si>
+  <si>
+    <t>* Code Refactoring</t>
+  </si>
+  <si>
+    <t>• Adjusted orientation widget for the phantom</t>
+  </si>
+  <si>
+    <t>• Adjusted 2D views for the phantom</t>
+  </si>
+  <si>
+    <t>• Extract/Load Image Centerline</t>
+  </si>
+  <si>
+    <t>* Tracker</t>
+  </si>
+  <si>
+    <t>• Record/Load Tracker Centerline</t>
+  </si>
+  <si>
+    <t>* 2D/3D Views</t>
+  </si>
+  <si>
+    <t>• Integrated Registration Process</t>
   </si>
 </sst>
 </file>
@@ -246,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -286,7 +301,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -568,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
@@ -607,7 +621,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -621,13 +635,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -635,10 +649,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,51 +660,75 @@
         <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="12">
-        <f>SUM(C6:C10)</f>
-        <v>40</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="12">
+        <f>SUM(C6:C12)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
-        <f>C11-D12</f>
-        <v>39</v>
+      <c r="D15" s="2">
+        <f>C13-D14</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -56,37 +56,37 @@
     <t>* Registration</t>
   </si>
   <si>
-    <t>* Patients Database</t>
-  </si>
-  <si>
-    <t>* Meetings &amp; other</t>
-  </si>
-  <si>
-    <t>شهریور، مهر و آبان 99</t>
-  </si>
-  <si>
-    <t>* Code Refactoring</t>
-  </si>
-  <si>
-    <t>• Adjusted orientation widget for the phantom</t>
-  </si>
-  <si>
-    <t>• Adjusted 2D views for the phantom</t>
-  </si>
-  <si>
-    <t>• Extract/Load Image Centerline</t>
-  </si>
-  <si>
     <t>* Tracker</t>
   </si>
   <si>
-    <t>• Record/Load Tracker Centerline</t>
-  </si>
-  <si>
     <t>* 2D/3D Views</t>
   </si>
   <si>
-    <t>• Integrated Registration Process</t>
+    <t>آذر 99</t>
+  </si>
+  <si>
+    <t>* Documentation</t>
+  </si>
+  <si>
+    <t>• Fixed tracker's crash</t>
+  </si>
+  <si>
+    <t>• Added tracker status splash messages</t>
+  </si>
+  <si>
+    <t>• Complete and working registration process</t>
+  </si>
+  <si>
+    <t>• Presentations @IACT</t>
+  </si>
+  <si>
+    <t>• Document of the code</t>
+  </si>
+  <si>
+    <t>* Patients / Database</t>
+  </si>
+  <si>
+    <t>* Meetings &amp; Presentations</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>14</v>
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>15</v>
@@ -660,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -668,29 +668,29 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E12" s="17"/>
     </row>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
       </c>
       <c r="D15" s="2">
         <f>C13-D14</f>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -44,9 +44,6 @@
     <t>• Total Hours</t>
   </si>
   <si>
-    <t>@Parsiss</t>
-  </si>
-  <si>
     <t>@Home</t>
   </si>
   <si>
@@ -87,6 +84,30 @@
   </si>
   <si>
     <t>* Meetings &amp; Presentations</t>
+  </si>
+  <si>
+    <t>@IACT</t>
+  </si>
+  <si>
+    <t>دی 99</t>
+  </si>
+  <si>
+    <t>* Segmentation</t>
+  </si>
+  <si>
+    <t>* Debug &amp; Refactor</t>
+  </si>
+  <si>
+    <t>• More realistic virtual view</t>
+  </si>
+  <si>
+    <t>• BronchoVision Video</t>
+  </si>
+  <si>
+    <t>• Bug and Crash Fixes</t>
+  </si>
+  <si>
+    <t>* BronchoVision Video</t>
   </si>
 </sst>
 </file>
@@ -582,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,12 +619,12 @@
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,16 +633,16 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
@@ -633,79 +654,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9">
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
         <v>12</v>
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
@@ -714,21 +735,141 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D14" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
         <f>C13-D14</f>
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12">
+        <f>SUM(C19:C25)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C26-D27</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -47,67 +47,25 @@
     <t>@Home</t>
   </si>
   <si>
-    <t>* GUI</t>
-  </si>
-  <si>
-    <t>* Registration</t>
-  </si>
-  <si>
-    <t>* Tracker</t>
-  </si>
-  <si>
-    <t>* 2D/3D Views</t>
-  </si>
-  <si>
-    <t>آذر 99</t>
-  </si>
-  <si>
-    <t>* Documentation</t>
-  </si>
-  <si>
-    <t>• Fixed tracker's crash</t>
-  </si>
-  <si>
-    <t>• Added tracker status splash messages</t>
-  </si>
-  <si>
-    <t>• Complete and working registration process</t>
-  </si>
-  <si>
-    <t>• Presentations @IACT</t>
-  </si>
-  <si>
-    <t>• Document of the code</t>
-  </si>
-  <si>
-    <t>* Patients / Database</t>
-  </si>
-  <si>
-    <t>* Meetings &amp; Presentations</t>
-  </si>
-  <si>
-    <t>@IACT</t>
-  </si>
-  <si>
-    <t>دی 99</t>
-  </si>
-  <si>
-    <t>* Segmentation</t>
-  </si>
-  <si>
-    <t>* Debug &amp; Refactor</t>
-  </si>
-  <si>
-    <t>• More realistic virtual view</t>
-  </si>
-  <si>
-    <t>• BronchoVision Video</t>
-  </si>
-  <si>
-    <t>• Bug and Crash Fixes</t>
-  </si>
-  <si>
-    <t>* BronchoVision Video</t>
+    <t>@Parsiss</t>
+  </si>
+  <si>
+    <t>بهار 1400</t>
+  </si>
+  <si>
+    <t>* System Preparation</t>
+  </si>
+  <si>
+    <t>• Meeting with chinese team @Parsiss</t>
+  </si>
+  <si>
+    <t>* Debugging</t>
+  </si>
+  <si>
+    <t>• Navigation with Video Camera</t>
+  </si>
+  <si>
+    <t>* Meetings</t>
   </si>
 </sst>
 </file>
@@ -178,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +242,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -318,11 +267,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,12 +571,12 @@
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -633,243 +585,82 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <f>SUM(C6:C8)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="D11" s="2">
+        <f>C9-D10</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9">
-        <v>12</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12">
-        <f>SUM(C6:C12)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <f>C13-D14</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9">
-        <v>5</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="12">
-        <f>SUM(C19:C25)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <f>C26-D27</f>
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/other/TimeSheet_Mohagheghi.xlsx
+++ b/other/TimeSheet_Mohagheghi.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parsiss\Bronchoscopy_project\BronchoVision\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E39EA-ADD2-40D7-8F49-6CE608631501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Saeed Mohagheghi</t>
   </si>
@@ -66,12 +74,27 @@
   </si>
   <si>
     <t>* Meetings</t>
+  </si>
+  <si>
+    <t>پاییز 1400</t>
+  </si>
+  <si>
+    <t>• Lung/Airway Segmentation Data</t>
+  </si>
+  <si>
+    <t>* Data Preparation</t>
+  </si>
+  <si>
+    <t>• Deep Segmentation Model</t>
+  </si>
+  <si>
+    <t>* Deep Model Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,18 +284,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,11 +577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,14 +609,14 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -613,7 +636,7 @@
       <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -644,23 +667,110 @@
         <f>SUM(C6:C8)</f>
         <v>10</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
         <f>C9-D10</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <f>SUM(C15:C18)</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C19-D20</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
